--- a/createtable/income.xlsx
+++ b/createtable/income.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xx\Desktop\createtable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\python\stockdatamanage\createtable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C03A9666-05D9-459D-9B2B-13AF833EC1EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74AAFB2-2D7E-43B9-9F97-757AFB837C49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{558C62BA-1ECE-431F-AA9D-5E446A311FCF}"/>
+    <workbookView xWindow="4820" yWindow="3170" windowWidth="19200" windowHeight="10510" xr2:uid="{558C62BA-1ECE-431F-AA9D-5E446A311FCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="143">
   <si>
     <t>名称</t>
   </si>
@@ -48,9 +48,6 @@
     <t>ts_code</t>
   </si>
   <si>
-    <t>str</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -451,13 +448,29 @@
   </si>
   <si>
     <t>更新标识，0未修改1更正过</t>
+  </si>
+  <si>
+    <t>char(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,19 +478,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0A0A0A"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0A0A0A"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -495,27 +495,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE0E0E0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE0E0E0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE0E0E0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE0E0E0"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -524,20 +509,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -860,956 +833,956 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.125" customWidth="1"/>
+    <col min="4" max="4" width="44.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="2" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="2" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="2" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="2" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="2" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="2" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="2" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="2" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="2" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="2" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="2" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="2" t="s">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="2" t="s">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="2" t="s">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="2" t="s">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="2" t="s">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="2" t="s">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="2" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="2" t="s">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="2" t="s">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="2" t="s">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="2" t="s">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="2" t="s">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="2" t="s">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="2" t="s">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="2" t="s">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="2" t="s">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="2" t="s">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="2" t="s">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="2" t="s">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
         <v>123</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="2" t="s">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="2" t="s">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
         <v>127</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="2" t="s">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="2" t="s">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
         <v>131</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="2" t="s">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
         <v>133</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="2" t="s">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="2" t="s">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="B67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" t="s">
         <v>137</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" t="s">
         <v>138</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>139</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>